--- a/Digital Workflow/Excel Docs/Mean Coordinate Values_2023-07-25.xlsx
+++ b/Digital Workflow/Excel Docs/Mean Coordinate Values_2023-07-25.xlsx
@@ -497,34 +497,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>1.666666666666667</v>
+        <v>1.8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.333333333333333</v>
+        <v>1.6</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.666666666666667</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.333333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4571067811865476</v>
+        <v>0.4363961030678928</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5345177968644247</v>
+        <v>-0.4085786437626905</v>
       </c>
     </row>
     <row r="3">
@@ -534,34 +534,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.333333333333333</v>
+        <v>1.8</v>
       </c>
       <c r="C3" t="n">
-        <v>1.666666666666667</v>
+        <v>2.2</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="E3" t="n">
-        <v>2.666666666666667</v>
+        <v>2.2</v>
       </c>
       <c r="F3" t="n">
-        <v>4.333333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.333333333333333</v>
+        <v>2.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.5303300858899107</v>
+        <v>-0.3949747468305834</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09344336196330354</v>
+        <v>0.02071067811865474</v>
       </c>
     </row>
     <row r="4">
@@ -571,34 +571,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.333333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.666666666666667</v>
+        <v>2.2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.333333333333333</v>
+        <v>2.6</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.666666666666667</v>
-      </c>
       <c r="I4" t="n">
-        <v>4.333333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4916245780509721</v>
+        <v>0.4778174593052023</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.4797799427400596</v>
+        <v>-0.2757359312880715</v>
       </c>
     </row>
   </sheetData>
